--- a/2.1.5 Растяжение резины/Data.xlsx
+++ b/2.1.5 Растяжение резины/Data.xlsx
@@ -2,41 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anna\Desktop\Phystech\2semestr\Лабы\2.1.5 Растяжение резины\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\op812\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12504" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>m</t>
+    <t>N</t>
   </si>
   <si>
-    <t>lambda</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Т, мВ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +43,333 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -62,15 +377,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,6 +587,970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23168044619422573"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>176.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>354.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>529.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>707.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>872.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1078.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>228.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>581.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>759.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>924.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1130.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>529.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>706.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$1:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="387254648"/>
+        <c:axId val="387257392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="387254648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387257392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="387257392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387254648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -131,9 +1599,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -166,9 +1634,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -348,23 +1816,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>477.4</v>
+      </c>
+      <c r="E1">
+        <f>A2</f>
+        <v>176.7</v>
+      </c>
+      <c r="F1">
+        <f>I1-156</f>
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>176.7</v>
+      </c>
+      <c r="E2">
+        <f>A2+A3</f>
+        <v>354.79999999999995</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F15" si="0">I2-156</f>
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>178.1</v>
+      </c>
+      <c r="E3">
+        <f>E2+A4</f>
+        <v>529.59999999999991</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>174.8</v>
+      </c>
+      <c r="E4">
+        <f>E3+A5</f>
+        <v>707.69999999999993</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>178.1</v>
+      </c>
+      <c r="E5">
+        <f>E4+A6</f>
+        <v>872.69999999999993</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="I5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>165</v>
+      </c>
+      <c r="E6">
+        <f>E5+A7</f>
+        <v>1078.3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>205.6</v>
+      </c>
+      <c r="E7">
+        <f>E1+$A$9</f>
+        <v>228.89999999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>200.5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E12" si="1">E2+$A$9</f>
+        <v>406.99999999999994</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>52.2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>581.79999999999995</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>759.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>924.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1130.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="I12">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f>A1+A9</f>
+        <v>529.6</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>A1+A2+A9</f>
+        <v>706.3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f>A1+A2+A3+A9</f>
+        <v>884.4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="I15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B18" t="s">
         <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" ref="A21:A40" si="2">A20+1</f>
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>217</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>213</v>
+      </c>
+      <c r="C25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>203</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>203</v>
+      </c>
+      <c r="C27">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>196</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>196</v>
+      </c>
+      <c r="C29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>192</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>192</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>182</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>182</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>